--- a/04.Tablas/Info_ppt.xlsx
+++ b/04.Tablas/Info_ppt.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Horiz.Pred" sheetId="3" r:id="rId1"/>
     <sheet name="Fig.RN" sheetId="4" r:id="rId2"/>
     <sheet name="Log.Conv" sheetId="5" r:id="rId3"/>
-    <sheet name="Arq.RN" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
+    <sheet name="Arq.RN" sheetId="7" r:id="rId4"/>
+    <sheet name="Ejecucón" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="81">
   <si>
     <t>Muy Corto Plazo</t>
   </si>
@@ -159,13 +159,132 @@
   </si>
   <si>
     <t>R profunda</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>0,324</t>
+  </si>
+  <si>
+    <t>0,322</t>
+  </si>
+  <si>
+    <t>0,311</t>
+  </si>
+  <si>
+    <t>0,325</t>
+  </si>
+  <si>
+    <t>0,03</t>
+  </si>
+  <si>
+    <t>0,297</t>
+  </si>
+  <si>
+    <t>0,321</t>
+  </si>
+  <si>
+    <t>0,323</t>
+  </si>
+  <si>
+    <t>0,312</t>
+  </si>
+  <si>
+    <t>0,286</t>
+  </si>
+  <si>
+    <t>Epocas</t>
+  </si>
+  <si>
+    <t>Red Simple</t>
+  </si>
+  <si>
+    <t>Red Profunda</t>
+  </si>
+  <si>
+    <t>Capas
+Ocultas</t>
+  </si>
+  <si>
+    <t>Neuronas</t>
+  </si>
+  <si>
+    <t>0,26</t>
+  </si>
+  <si>
+    <t>0,0283</t>
+  </si>
+  <si>
+    <t>0,0287</t>
+  </si>
+  <si>
+    <t>0,24</t>
+  </si>
+  <si>
+    <t>0,0294</t>
+  </si>
+  <si>
+    <t>0,0285</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>0,0286</t>
+  </si>
+  <si>
+    <t>0,27</t>
+  </si>
+  <si>
+    <t>0,0284</t>
+  </si>
+  <si>
+    <t>0,271</t>
+  </si>
+  <si>
+    <t>0,269</t>
+  </si>
+  <si>
+    <t>0,272</t>
+  </si>
+  <si>
+    <t>0,33</t>
+  </si>
+  <si>
+    <t>0,32</t>
+  </si>
+  <si>
+    <t>0,0282</t>
+  </si>
+  <si>
+    <t>0,274</t>
+  </si>
+  <si>
+    <t>0,0281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R^2 Keras </t>
+  </si>
+  <si>
+    <t>Error minimo 
+cuadrado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +349,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +392,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -345,7 +477,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -405,8 +537,132 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -452,6 +708,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -464,11 +732,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -498,6 +775,68 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -527,6 +866,68 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1728,23 +2129,7 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Direcci</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ón </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>del Viento</a:t>
+            <a:t>Dirección del Viento</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -1977,21 +2362,8 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Energ</a:t>
+            <a:t>Energía Generada</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ía Generada</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2341,23 +2713,7 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Direcci</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ón </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>del Viento</a:t>
+            <a:t>Dirección del Viento</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -2395,14 +2751,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2411,8 +2767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11506200" y="800100"/>
-          <a:ext cx="1092200" cy="2146300"/>
+          <a:off x="11506200" y="1054100"/>
+          <a:ext cx="1092200" cy="1612900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2448,14 +2804,6 @@
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2510,7 +2858,7 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>100 neuronas</a:t>
+            <a:t>50 neuronas</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -2590,21 +2938,8 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Energ</a:t>
+            <a:t>Energía Generada</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ía Generada</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2689,7 +3024,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -2706,9 +3041,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10909300" y="1873250"/>
-          <a:ext cx="596900" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="10909300" y="1860550"/>
+          <a:ext cx="596900" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2862,7 +3197,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -2880,8 +3215,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12598400" y="1873250"/>
-          <a:ext cx="571500" cy="0"/>
+          <a:off x="12598400" y="1860550"/>
+          <a:ext cx="571500" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2932,6 +3267,771 @@
         <a:xfrm>
           <a:off x="14262100" y="1873250"/>
           <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18694400" y="736600"/>
+          <a:ext cx="1104900" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Velocidad del Viento</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(ws)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1 neurona</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18681700" y="1955800"/>
+          <a:ext cx="1104900" cy="927100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dirección del Viento</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(wd)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1 neurona</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20624800" y="762000"/>
+          <a:ext cx="1092200" cy="2146300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Capa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Oculta #1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100 neuronas</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23990300" y="1295400"/>
+          <a:ext cx="1104900" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Energía Generada</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(wp1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1 neurona</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Right Bracket 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19799300" y="1193800"/>
+          <a:ext cx="228600" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20027900" y="1835150"/>
+          <a:ext cx="596900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22288500" y="774700"/>
+          <a:ext cx="1092200" cy="2146300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Capa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Oculta #2 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>100 neuronas</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21717000" y="1835150"/>
+          <a:ext cx="571500" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23380700" y="1835150"/>
+          <a:ext cx="609600" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3215,7 +4315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3565,7 +4665,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="7"/>
@@ -3579,7 +4679,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9">
@@ -3646,7 +4746,7 @@
   <dimension ref="B3:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3694,7 +4794,7 @@
       <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="24">
         <v>0</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -3720,7 +4820,7 @@
       <c r="C5" s="12">
         <v>27</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
@@ -3744,7 +4844,7 @@
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="24">
         <v>12</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -3770,7 +4870,7 @@
       <c r="C7" s="12">
         <v>27</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
@@ -3794,7 +4894,7 @@
       <c r="C8" s="12">
         <v>40</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="12" t="s">
         <v>37</v>
       </c>
@@ -3828,13 +4928,623 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AF21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="22" max="22" width="6.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+    </row>
+    <row r="2" spans="2:32">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="2:32">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="2:32">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="2:32">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+    </row>
+    <row r="6" spans="2:32">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+    </row>
+    <row r="7" spans="2:32">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+    </row>
+    <row r="8" spans="2:32">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+    </row>
+    <row r="9" spans="2:32">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+    </row>
+    <row r="10" spans="2:32">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="2:32">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+    </row>
+    <row r="12" spans="2:32">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+    </row>
+    <row r="13" spans="2:32">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+    </row>
+    <row r="14" spans="2:32">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+    </row>
+    <row r="15" spans="2:32">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+    </row>
+    <row r="16" spans="2:32">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" spans="2:32">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+    </row>
+    <row r="18" spans="2:32">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+    </row>
+    <row r="19" spans="2:32">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+    </row>
+    <row r="20" spans="2:32">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+    </row>
+    <row r="21" spans="2:32">
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3845,418 +5555,966 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U21"/>
+  <dimension ref="B2:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:21">
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-    </row>
-    <row r="2" spans="2:21">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+    <row r="2" spans="2:22">
+      <c r="E2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="J2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="2:21">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="2:21">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="2:21">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
+    </row>
+    <row r="4" spans="2:22" ht="24">
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="21">
+        <v>50</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="21">
+        <v>13</v>
+      </c>
+      <c r="J5" s="28">
+        <v>50</v>
+      </c>
+      <c r="K5" s="28">
+        <v>2</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>50</v>
+      </c>
+      <c r="R5" s="28">
+        <v>2</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="E6" s="21">
+        <v>80</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="21">
+        <v>13</v>
+      </c>
+      <c r="J6" s="28">
+        <v>50</v>
+      </c>
+      <c r="K6" s="28">
+        <v>4</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>50</v>
+      </c>
+      <c r="R6" s="28">
+        <v>4</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="E7" s="21">
+        <v>100</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="21">
+        <v>13</v>
+      </c>
+      <c r="J7" s="28">
+        <v>50</v>
+      </c>
+      <c r="K7" s="28">
+        <v>6</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>50</v>
+      </c>
+      <c r="R7" s="28">
+        <v>6</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="E8" s="21">
+        <v>120</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="21">
+        <v>13</v>
+      </c>
+      <c r="J8" s="28">
+        <v>50</v>
+      </c>
+      <c r="K8" s="28">
+        <v>8</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>50</v>
+      </c>
+      <c r="R8" s="28">
+        <v>8</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="V8" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="E9" s="21">
+        <v>140</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="21">
+        <v>13</v>
+      </c>
+      <c r="J9" s="28">
+        <v>50</v>
+      </c>
+      <c r="K9" s="28">
+        <v>2</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>50</v>
+      </c>
+      <c r="R9" s="28">
+        <v>2</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="E10" s="21">
+        <v>160</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="21">
+        <v>13</v>
+      </c>
+      <c r="J10" s="28">
+        <v>50</v>
+      </c>
+      <c r="K10" s="28">
+        <v>4</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>50</v>
+      </c>
+      <c r="R10" s="28">
+        <v>4</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="E11" s="21">
+        <v>180</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="21">
+        <v>13</v>
+      </c>
+      <c r="J11" s="28">
+        <v>50</v>
+      </c>
+      <c r="K11" s="28">
+        <v>6</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>50</v>
+      </c>
+      <c r="R11" s="28">
+        <v>6</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="E12" s="29">
+        <v>200</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="30">
+        <v>13</v>
+      </c>
+      <c r="J12" s="28">
+        <v>50</v>
+      </c>
+      <c r="K12" s="28">
+        <v>8</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>50</v>
+      </c>
+      <c r="R12" s="28">
+        <v>8</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="E13" s="28">
+        <v>220</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="28">
+        <v>13</v>
+      </c>
+      <c r="J13" s="28">
+        <v>50</v>
+      </c>
+      <c r="K13" s="28">
+        <v>4</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>50</v>
+      </c>
+      <c r="R13" s="28">
+        <v>4</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="E14" s="28">
+        <v>240</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="28">
+        <v>13</v>
+      </c>
+      <c r="J14" s="28">
+        <v>50</v>
+      </c>
+      <c r="K14" s="28">
+        <v>6</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>50</v>
+      </c>
+      <c r="R14" s="28">
+        <v>6</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="E15" s="28">
+        <v>260</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="28">
+        <v>13</v>
+      </c>
+      <c r="J15" s="29">
+        <v>100</v>
+      </c>
+      <c r="K15" s="29">
+        <v>4</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="29">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>100</v>
+      </c>
+      <c r="R15" s="29">
+        <v>4</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="V15" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="E16" s="28">
+        <v>300</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="28">
+        <v>13</v>
+      </c>
+      <c r="J16" s="28">
+        <v>100</v>
+      </c>
+      <c r="K16" s="28">
+        <v>6</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>100</v>
+      </c>
+      <c r="R16" s="28">
+        <v>6</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V16" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="5:22">
+      <c r="E17" s="28">
+        <v>400</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="28">
+        <v>13</v>
+      </c>
+      <c r="J17" s="28">
+        <v>100</v>
+      </c>
+      <c r="K17" s="28">
+        <v>4</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>100</v>
+      </c>
+      <c r="R17" s="28">
+        <v>4</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="J18" s="28">
+        <v>100</v>
+      </c>
+      <c r="K18" s="28">
+        <v>6</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>100</v>
+      </c>
+      <c r="R18" s="28">
+        <v>6</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="J19" s="28">
+        <v>200</v>
+      </c>
+      <c r="K19" s="28">
+        <v>4</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>200</v>
+      </c>
+      <c r="R19" s="28">
+        <v>4</v>
+      </c>
+      <c r="S19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="5:22">
+      <c r="J20" s="28">
+        <v>200</v>
+      </c>
+      <c r="K20" s="28">
+        <v>6</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>200</v>
+      </c>
+      <c r="R20" s="28">
+        <v>6</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U20" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22">
+      <c r="J21" s="28">
+        <v>300</v>
+      </c>
+      <c r="K21" s="28">
+        <v>4</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>300</v>
+      </c>
+      <c r="R21" s="28">
+        <v>4</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22">
+      <c r="J22" s="28">
+        <v>400</v>
+      </c>
+      <c r="K22" s="28">
+        <v>4</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>400</v>
+      </c>
+      <c r="R22" s="28">
+        <v>4</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V22" s="28">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:O2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/04.Tablas/Info_ppt.xlsx
+++ b/04.Tablas/Info_ppt.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>Muy Corto Plazo</t>
   </si>
@@ -278,6 +278,39 @@
   <si>
     <t>Error minimo 
 cuadrado</t>
+  </si>
+  <si>
+    <t>Red LSTM</t>
+  </si>
+  <si>
+    <t>0,0288</t>
+  </si>
+  <si>
+    <t>0,0422</t>
+  </si>
+  <si>
+    <t>0,34</t>
+  </si>
+  <si>
+    <t>0,0325</t>
+  </si>
+  <si>
+    <t>0,28</t>
+  </si>
+  <si>
+    <t>Modelo ML</t>
+  </si>
+  <si>
+    <t>0,0280</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Reg Lineal</t>
+  </si>
+  <si>
+    <t>Red Neu. Simple</t>
   </si>
 </sst>
 </file>
@@ -477,7 +510,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -661,8 +694,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -744,8 +819,14 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="225">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -837,6 +918,27 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -928,6 +1030,27 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5555,10 +5678,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V22"/>
+  <dimension ref="B2:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5570,9 +5693,11 @@
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" customWidth="1"/>
+    <col min="26" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:28">
       <c r="E2" s="27" t="s">
         <v>57</v>
       </c>
@@ -5587,8 +5712,15 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="2:22">
+      <c r="Q2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="2:28">
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -5600,7 +5732,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:22" ht="24">
+    <row r="4" spans="2:28" ht="24">
       <c r="B4" s="11" t="s">
         <v>43</v>
       </c>
@@ -5644,23 +5776,38 @@
         <v>59</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="T4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:28">
+      <c r="B5" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="21">
@@ -5694,25 +5841,42 @@
         <v>10</v>
       </c>
       <c r="Q5" s="28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R5" s="28">
         <v>2</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" s="28">
+        <v>68</v>
+      </c>
+      <c r="U5" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:22">
+      <c r="W5" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" s="28" t="str">
+        <f>B5</f>
+        <v>0,32</v>
+      </c>
+      <c r="AA5" s="28" t="str">
+        <f>C5</f>
+        <v>0,03</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28">
       <c r="E6" s="21">
         <v>80</v>
       </c>
@@ -5744,25 +5908,44 @@
         <v>10</v>
       </c>
       <c r="Q6" s="28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R6" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="U6" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6" s="28">
+        <v>66</v>
+      </c>
+      <c r="U6" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:22">
+      <c r="W6" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="28">
+        <f>E12</f>
+        <v>200</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="28" t="str">
+        <f>F12</f>
+        <v>0,325</v>
+      </c>
+      <c r="AA6" s="28" t="str">
+        <f>G12</f>
+        <v>0,03</v>
+      </c>
+      <c r="AB6" s="28">
+        <f>H12</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28">
       <c r="E7" s="21">
         <v>100</v>
       </c>
@@ -5794,25 +5977,45 @@
         <v>10</v>
       </c>
       <c r="Q7" s="28">
+        <v>100</v>
+      </c>
+      <c r="R7" s="28">
+        <v>10</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="28">
+        <v>10</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="X7" s="28">
+        <f>J11</f>
         <v>50</v>
       </c>
-      <c r="R7" s="28">
+      <c r="Y7" s="28">
+        <f>K11</f>
         <v>6</v>
       </c>
-      <c r="S7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="V7" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22">
+      <c r="Z7" s="28" t="str">
+        <f>M11</f>
+        <v>0,33</v>
+      </c>
+      <c r="AA7" s="28" t="str">
+        <f>N11</f>
+        <v>0,0282</v>
+      </c>
+      <c r="AB7" s="28">
+        <f>O11</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28">
       <c r="E8" s="21">
         <v>120</v>
       </c>
@@ -5844,25 +6047,45 @@
         <v>10</v>
       </c>
       <c r="Q8" s="28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R8" s="28">
-        <v>8</v>
-      </c>
-      <c r="S8" s="28" t="s">
-        <v>67</v>
+        <v>20</v>
+      </c>
+      <c r="S8" s="28">
+        <v>0</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="U8" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="V8" s="28">
+        <v>83</v>
+      </c>
+      <c r="U8" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:22">
+      <c r="W8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="X8" s="28">
+        <f>Q14</f>
+        <v>100</v>
+      </c>
+      <c r="Y8" s="28">
+        <f>R14</f>
+        <v>5</v>
+      </c>
+      <c r="Z8" s="28" t="str">
+        <f>S14</f>
+        <v>0,34</v>
+      </c>
+      <c r="AA8" s="28" t="str">
+        <f>T14</f>
+        <v>0,0280</v>
+      </c>
+      <c r="AB8" s="28">
+        <f>U14</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28">
       <c r="E9" s="21">
         <v>140</v>
       </c>
@@ -5894,25 +6117,22 @@
         <v>20</v>
       </c>
       <c r="Q9" s="28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R9" s="28">
         <v>2</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="V9" s="28">
+        <v>78</v>
+      </c>
+      <c r="U9" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:28">
       <c r="E10" s="21">
         <v>160</v>
       </c>
@@ -5944,25 +6164,22 @@
         <v>20</v>
       </c>
       <c r="Q10" s="28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R10" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T10" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" s="28">
+        <v>88</v>
+      </c>
+      <c r="U10" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:28">
       <c r="E11" s="21">
         <v>180</v>
       </c>
@@ -5975,44 +6192,41 @@
       <c r="H11" s="21">
         <v>13</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="29">
         <v>50</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="29">
         <v>6</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="29">
         <v>20</v>
       </c>
       <c r="Q11" s="28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R11" s="28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="V11" s="28">
+        <v>66</v>
+      </c>
+      <c r="U11" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:28">
       <c r="E12" s="29">
         <v>200</v>
       </c>
@@ -6044,25 +6258,22 @@
         <v>20</v>
       </c>
       <c r="Q12" s="28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R12" s="28">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="T12" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="V12" s="28">
+        <v>89</v>
+      </c>
+      <c r="U12" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:28">
       <c r="E13" s="28">
         <v>220</v>
       </c>
@@ -6094,25 +6305,22 @@
         <v>25</v>
       </c>
       <c r="Q13" s="28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R13" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U13" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="V13" s="28">
+        <v>88</v>
+      </c>
+      <c r="U13" s="28">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:28">
       <c r="E14" s="28">
         <v>240</v>
       </c>
@@ -6143,26 +6351,23 @@
       <c r="O14" s="28">
         <v>25</v>
       </c>
-      <c r="Q14" s="28">
-        <v>50</v>
-      </c>
-      <c r="R14" s="28">
-        <v>6</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="T14" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" s="28">
+      <c r="Q14" s="29">
+        <v>100</v>
+      </c>
+      <c r="R14" s="29">
+        <v>5</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:28">
       <c r="E15" s="28">
         <v>260</v>
       </c>
@@ -6175,44 +6380,41 @@
       <c r="H15" s="28">
         <v>13</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="31">
         <v>100</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="31">
         <v>4</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="29">
+      <c r="M15" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="31">
         <v>20</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="28">
         <v>100</v>
       </c>
-      <c r="R15" s="29">
-        <v>4</v>
-      </c>
-      <c r="S15" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U15" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="V15" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22">
+      <c r="R15" s="28">
+        <v>10</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
       <c r="E16" s="28">
         <v>300</v>
       </c>
@@ -6247,22 +6449,19 @@
         <v>100</v>
       </c>
       <c r="R16" s="28">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="T16" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="U16" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="V16" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="5:22">
+        <v>89</v>
+      </c>
+      <c r="U16" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:21">
       <c r="E17" s="28">
         <v>400</v>
       </c>
@@ -6297,22 +6496,19 @@
         <v>100</v>
       </c>
       <c r="R17" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="T17" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="V17" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="5:22">
+        <v>88</v>
+      </c>
+      <c r="U17" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="5:21">
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
@@ -6335,25 +6531,22 @@
         <v>25</v>
       </c>
       <c r="Q18" s="28">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R18" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T18" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U18" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="V18" s="28">
+        <v>88</v>
+      </c>
+      <c r="U18" s="28">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="5:22">
+    <row r="19" spans="5:21">
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -6375,26 +6568,13 @@
       <c r="O19" s="28">
         <v>20</v>
       </c>
-      <c r="Q19" s="28">
-        <v>200</v>
-      </c>
-      <c r="R19" s="28">
-        <v>4</v>
-      </c>
-      <c r="S19" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="T19" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="V19" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="5:22">
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+    </row>
+    <row r="20" spans="5:21">
       <c r="J20" s="28">
         <v>200</v>
       </c>
@@ -6413,26 +6593,13 @@
       <c r="O20" s="28">
         <v>25</v>
       </c>
-      <c r="Q20" s="28">
-        <v>200</v>
-      </c>
-      <c r="R20" s="28">
-        <v>6</v>
-      </c>
-      <c r="S20" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="T20" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U20" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="V20" s="28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="5:22">
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+    </row>
+    <row r="21" spans="5:21">
       <c r="J21" s="28">
         <v>300</v>
       </c>
@@ -6451,26 +6618,13 @@
       <c r="O21" s="28">
         <v>20</v>
       </c>
-      <c r="Q21" s="28">
-        <v>300</v>
-      </c>
-      <c r="R21" s="28">
-        <v>4</v>
-      </c>
-      <c r="S21" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="T21" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U21" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="5:22">
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+    </row>
+    <row r="22" spans="5:21">
       <c r="J22" s="28">
         <v>400</v>
       </c>
@@ -6489,29 +6643,17 @@
       <c r="O22" s="28">
         <v>20</v>
       </c>
-      <c r="Q22" s="28">
-        <v>400</v>
-      </c>
-      <c r="R22" s="28">
-        <v>4</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="T22" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U22" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="V22" s="28">
-        <v>20</v>
-      </c>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="J2:O2"/>
+    <mergeCell ref="Q2:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/04.Tablas/Info_ppt.xlsx
+++ b/04.Tablas/Info_ppt.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Horiz.Pred" sheetId="3" r:id="rId1"/>
     <sheet name="Fig.RN" sheetId="4" r:id="rId2"/>
     <sheet name="Log.Conv" sheetId="5" r:id="rId3"/>
     <sheet name="Arq.RN" sheetId="7" r:id="rId4"/>
-    <sheet name="Ejecucón" sheetId="8" r:id="rId5"/>
+    <sheet name="Ejec.Iter1" sheetId="8" r:id="rId5"/>
+    <sheet name="Ejec.Iter2" sheetId="9" r:id="rId6"/>
+    <sheet name="RN_WP" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="117">
   <si>
     <t>Muy Corto Plazo</t>
   </si>
@@ -311,6 +313,82 @@
   </si>
   <si>
     <t>Red Neu. Simple</t>
+  </si>
+  <si>
+    <t>5 a 12 hrs.</t>
+  </si>
+  <si>
+    <t>13 a 24 hrs.</t>
+  </si>
+  <si>
+    <t>25 a 48 hrs.</t>
+  </si>
+  <si>
+    <t>Horizontes de predicción</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>0,18</t>
+  </si>
+  <si>
+    <t>00,3</t>
+  </si>
+  <si>
+    <t>0,19</t>
+  </si>
+  <si>
+    <t>0,17</t>
+  </si>
+  <si>
+    <t>0,034</t>
+  </si>
+  <si>
+    <t>0,29</t>
+  </si>
+  <si>
+    <t>0,031</t>
+  </si>
+  <si>
+    <t>0,0277</t>
+  </si>
+  <si>
+    <t>0,032</t>
+  </si>
+  <si>
+    <t>0,36</t>
+  </si>
+  <si>
+    <t>0,028</t>
+  </si>
+  <si>
+    <t>0,0273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos </t>
+  </si>
+  <si>
+    <t>Profunda</t>
+  </si>
+  <si>
+    <t>N Entrada</t>
+  </si>
+  <si>
+    <t>N Salida</t>
+  </si>
+  <si>
+    <t>N Capa Oculta</t>
+  </si>
+  <si>
+    <t>Datos 
+Entrenamiento</t>
+  </si>
+  <si>
+    <t># Capa Oculta</t>
+  </si>
+  <si>
+    <t>Revisión</t>
   </si>
 </sst>
 </file>
@@ -434,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -509,8 +587,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="225">
+  <cellStyleXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -736,8 +921,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -795,18 +1028,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,8 +1046,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="225">
+  <cellStyles count="273">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -939,6 +1223,30 @@
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1051,6 +1359,30 @@
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4438,7 +4770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4788,7 +5120,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="33" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="7"/>
@@ -4802,7 +5134,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="23"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9">
@@ -4917,7 +5249,7 @@
       <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -4943,7 +5275,7 @@
       <c r="C5" s="12">
         <v>27</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
@@ -4967,7 +5299,7 @@
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="34">
         <v>12</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -4993,7 +5325,7 @@
       <c r="C7" s="12">
         <v>27</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
@@ -5017,7 +5349,7 @@
       <c r="C8" s="12">
         <v>40</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="12" t="s">
         <v>37</v>
       </c>
@@ -5680,8 +6012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5698,27 +6030,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28">
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="J2" s="27" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="J2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="Q2" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="2:28">
       <c r="E3" s="22"/>
@@ -5804,10 +6136,10 @@
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="21">
@@ -5822,57 +6154,57 @@
       <c r="H5" s="21">
         <v>13</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="24">
         <v>50</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="24">
         <v>2</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="24">
         <v>10</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="24">
         <v>100</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="24">
         <v>2</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="24">
         <v>10</v>
       </c>
-      <c r="W5" s="28" t="s">
+      <c r="W5" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="X5" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="Y5" s="28" t="s">
+      <c r="Y5" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="Z5" s="28" t="str">
+      <c r="Z5" s="24" t="str">
         <f>B5</f>
         <v>0,32</v>
       </c>
-      <c r="AA5" s="28" t="str">
+      <c r="AA5" s="24" t="str">
         <f>C5</f>
         <v>0,03</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AB5" s="24" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5889,58 +6221,58 @@
       <c r="H6" s="21">
         <v>13</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="24">
         <v>50</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="24">
         <v>4</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="24">
         <v>10</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="24">
         <v>100</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="24">
         <v>5</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="S6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="T6" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="24">
         <v>10</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="X6" s="28">
+      <c r="X6" s="24">
         <f>E12</f>
         <v>200</v>
       </c>
-      <c r="Y6" s="28">
+      <c r="Y6" s="24">
         <v>1</v>
       </c>
-      <c r="Z6" s="28" t="str">
+      <c r="Z6" s="24" t="str">
         <f>F12</f>
         <v>0,325</v>
       </c>
-      <c r="AA6" s="28" t="str">
+      <c r="AA6" s="24" t="str">
         <f>G12</f>
         <v>0,03</v>
       </c>
-      <c r="AB6" s="28">
+      <c r="AB6" s="24">
         <f>H12</f>
         <v>13</v>
       </c>
@@ -5958,59 +6290,59 @@
       <c r="H7" s="21">
         <v>13</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="24">
         <v>50</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="24">
         <v>6</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="24">
         <v>10</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="24">
         <v>100</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="24">
         <v>10</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="T7" s="28" t="s">
+      <c r="T7" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="24">
         <v>10</v>
       </c>
-      <c r="W7" s="28" t="s">
+      <c r="W7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="24">
         <f>J11</f>
         <v>50</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="Y7" s="24">
         <f>K11</f>
         <v>6</v>
       </c>
-      <c r="Z7" s="28" t="str">
+      <c r="Z7" s="24" t="str">
         <f>M11</f>
         <v>0,33</v>
       </c>
-      <c r="AA7" s="28" t="str">
+      <c r="AA7" s="24" t="str">
         <f>N11</f>
         <v>0,0282</v>
       </c>
-      <c r="AB7" s="28">
+      <c r="AB7" s="24">
         <f>O11</f>
         <v>20</v>
       </c>
@@ -6028,59 +6360,59 @@
       <c r="H8" s="21">
         <v>13</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="24">
         <v>50</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="24">
         <v>8</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="24">
         <v>10</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="24">
         <v>100</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="24">
         <v>20</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="24">
         <v>0</v>
       </c>
-      <c r="T8" s="28" t="s">
+      <c r="T8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="24">
         <v>10</v>
       </c>
-      <c r="W8" s="28" t="s">
+      <c r="W8" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="X8" s="28">
+      <c r="X8" s="24">
         <f>Q14</f>
         <v>100</v>
       </c>
-      <c r="Y8" s="28">
+      <c r="Y8" s="24">
         <f>R14</f>
         <v>5</v>
       </c>
-      <c r="Z8" s="28" t="str">
+      <c r="Z8" s="24" t="str">
         <f>S14</f>
         <v>0,34</v>
       </c>
-      <c r="AA8" s="28" t="str">
+      <c r="AA8" s="24" t="str">
         <f>T14</f>
         <v>0,0280</v>
       </c>
-      <c r="AB8" s="28">
+      <c r="AB8" s="24">
         <f>U14</f>
         <v>25</v>
       </c>
@@ -6098,37 +6430,37 @@
       <c r="H9" s="21">
         <v>13</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="24">
         <v>50</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="24">
         <v>2</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="24">
         <v>20</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="24">
         <v>100</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="24">
         <v>2</v>
       </c>
-      <c r="S9" s="28" t="s">
+      <c r="S9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="T9" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="24">
         <v>20</v>
       </c>
     </row>
@@ -6145,37 +6477,37 @@
       <c r="H10" s="21">
         <v>13</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="24">
         <v>50</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="24">
         <v>4</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="24">
         <v>20</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="24">
         <v>100</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="24">
         <v>5</v>
       </c>
-      <c r="S10" s="28" t="s">
+      <c r="S10" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="24">
         <v>20</v>
       </c>
     </row>
@@ -6192,319 +6524,319 @@
       <c r="H11" s="21">
         <v>13</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="25">
         <v>50</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="25">
         <v>6</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="25">
         <v>20</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="24">
         <v>100</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="24">
         <v>10</v>
       </c>
-      <c r="S11" s="28" t="s">
+      <c r="S11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="28" t="s">
+      <c r="T11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="24">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:28">
-      <c r="E12" s="29">
+      <c r="E12" s="25">
         <v>200</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="26">
         <v>13</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="24">
         <v>50</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="24">
         <v>8</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="24">
         <v>20</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="24">
         <v>100</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="24">
         <v>20</v>
       </c>
-      <c r="S12" s="28" t="s">
+      <c r="S12" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="T12" s="28" t="s">
+      <c r="T12" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="U12" s="28">
+      <c r="U12" s="24">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:28">
-      <c r="E13" s="28">
+      <c r="E13" s="24">
         <v>220</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="24">
         <v>13</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="24">
         <v>50</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="24">
         <v>4</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="N13" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="24">
         <v>25</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="24">
         <v>100</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="24">
         <v>2</v>
       </c>
-      <c r="S13" s="28" t="s">
+      <c r="S13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="T13" s="28" t="s">
+      <c r="T13" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="U13" s="28">
+      <c r="U13" s="24">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:28">
-      <c r="E14" s="28">
+      <c r="E14" s="24">
         <v>240</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="24">
         <v>13</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="24">
         <v>50</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="24">
         <v>6</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="24">
         <v>25</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="25">
         <v>100</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="25">
         <v>5</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="S14" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="T14" s="29" t="s">
+      <c r="T14" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="25">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:28">
-      <c r="E15" s="28">
+      <c r="E15" s="24">
         <v>260</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="24">
         <v>13</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="27">
         <v>100</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="27">
         <v>4</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="27">
         <v>20</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="24">
         <v>100</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="24">
         <v>10</v>
       </c>
-      <c r="S15" s="31" t="s">
+      <c r="S15" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="T15" s="31" t="s">
+      <c r="T15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="27">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:28">
-      <c r="E16" s="28">
+      <c r="E16" s="24">
         <v>300</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="24">
         <v>13</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="24">
         <v>100</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="24">
         <v>6</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="24">
         <v>20</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="24">
         <v>100</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="24">
         <v>20</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="S16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="T16" s="28" t="s">
+      <c r="T16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="U16" s="28">
+      <c r="U16" s="24">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="5:21">
-      <c r="E17" s="28">
+      <c r="E17" s="24">
         <v>400</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="24">
         <v>13</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="24">
         <v>100</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="24">
         <v>4</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="24">
         <v>20</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="24">
         <v>100</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="24">
         <v>5</v>
       </c>
-      <c r="S17" s="28" t="s">
+      <c r="S17" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="T17" s="28" t="s">
+      <c r="T17" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="24">
         <v>30</v>
       </c>
     </row>
@@ -6512,37 +6844,37 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="J18" s="28">
+      <c r="J18" s="24">
         <v>100</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="24">
         <v>6</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="24">
         <v>25</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="24">
         <v>200</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="24">
         <v>5</v>
       </c>
-      <c r="S18" s="28" t="s">
+      <c r="S18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="T18" s="28" t="s">
+      <c r="T18" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="U18" s="28">
+      <c r="U18" s="24">
         <v>25</v>
       </c>
     </row>
@@ -6550,104 +6882,104 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
-      <c r="J19" s="28">
+      <c r="J19" s="24">
         <v>200</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="24">
         <v>4</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="28" t="s">
+      <c r="N19" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="24">
         <v>20</v>
       </c>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
     </row>
     <row r="20" spans="5:21">
-      <c r="J20" s="28">
+      <c r="J20" s="24">
         <v>200</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="24">
         <v>6</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="28" t="s">
+      <c r="N20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="24">
         <v>25</v>
       </c>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
     </row>
     <row r="21" spans="5:21">
-      <c r="J21" s="28">
+      <c r="J21" s="24">
         <v>300</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="24">
         <v>4</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O21" s="24">
         <v>20</v>
       </c>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
     </row>
     <row r="22" spans="5:21">
-      <c r="J22" s="28">
+      <c r="J22" s="24">
         <v>400</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="24">
         <v>4</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="24">
         <v>20</v>
       </c>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6663,4 +6995,372 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="24" customHeight="1">
+      <c r="B3" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="24">
+        <f>Ejec.Iter1!X6</f>
+        <v>200</v>
+      </c>
+      <c r="D7" s="24">
+        <f>Ejec.Iter1!Y6</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>20</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="24">
+        <f>Ejec.Iter1!X7</f>
+        <v>50</v>
+      </c>
+      <c r="D8" s="24">
+        <f>Ejec.Iter1!Y7</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="24">
+        <f>Ejec.Iter1!AB7</f>
+        <v>20</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="24">
+        <f>Ejec.Iter1!X8</f>
+        <v>100</v>
+      </c>
+      <c r="D9" s="24">
+        <f>Ejec.Iter1!Y8</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="24">
+        <f>Ejec.Iter1!AB8</f>
+        <v>25</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="28">
+      <c r="D1" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10">
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>792</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>(D2+1)*(G2*F2)+(E2+1)+(G2*F2)</f>
+        <v>36434</v>
+      </c>
+      <c r="I2">
+        <f>46670*0.8</f>
+        <v>37336</v>
+      </c>
+      <c r="J2" s="32" t="str">
+        <f>IF(I2&gt;H2,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10">
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <f>(D3+1)*(G3*F3)+(E3+1)+(G3*F3)</f>
+        <v>36434</v>
+      </c>
+      <c r="I3">
+        <f>46670*0.8</f>
+        <v>37336</v>
+      </c>
+      <c r="J3" s="32" t="str">
+        <f>IF(I3&gt;H3,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <f>(D4+1)*(G4*F4)+(E4+1)+(G4*F4)</f>
+        <v>36434</v>
+      </c>
+      <c r="I4">
+        <f>46670*0.8</f>
+        <v>37336</v>
+      </c>
+      <c r="J4" s="32" t="str">
+        <f>IF(I4&gt;H4,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/04.Tablas/Info_ppt.xlsx
+++ b/04.Tablas/Info_ppt.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Horiz.Pred" sheetId="3" r:id="rId1"/>
-    <sheet name="Fig.RN" sheetId="4" r:id="rId2"/>
-    <sheet name="Log.Conv" sheetId="5" r:id="rId3"/>
-    <sheet name="Arq.RN" sheetId="7" r:id="rId4"/>
-    <sheet name="Ejec.Iter1" sheetId="8" r:id="rId5"/>
-    <sheet name="Ejec.Iter2" sheetId="9" r:id="rId6"/>
-    <sheet name="RN_WP" sheetId="10" r:id="rId7"/>
+    <sheet name="Arq.RN.old" sheetId="7" r:id="rId1"/>
+    <sheet name="Horiz.Pred" sheetId="3" r:id="rId2"/>
+    <sheet name="Fig.RN" sheetId="4" r:id="rId3"/>
+    <sheet name="Log.Conv" sheetId="5" r:id="rId4"/>
+    <sheet name="Arq.RN.Form" sheetId="10" r:id="rId5"/>
+    <sheet name="RN.ParaEjec" sheetId="12" r:id="rId6"/>
+    <sheet name="Ejecucion" sheetId="8" r:id="rId7"/>
+    <sheet name="EjecucionFin" sheetId="14" r:id="rId8"/>
+    <sheet name="Predicción final" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="150">
   <si>
     <t>Muy Corto Plazo</t>
   </si>
@@ -88,27 +90,6 @@
 * Planificación de despacho de carga</t>
   </si>
   <si>
-    <t xml:space="preserve">* Fecha: Fecha y hora en la que se realizó la predicción. </t>
-  </si>
-  <si>
-    <t>* Hora: Es la hora para la que se realiza la.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* VX: Vector velocidad en el eje x. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* VY: Vector velocidad en el eje y. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* WS: Velocidad del viento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* WD: Dirección del viento. </t>
-  </si>
-  <si>
-    <t>Predicción Corto Plazo</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -167,42 +148,6 @@
   </si>
   <si>
     <t>R^2</t>
-  </si>
-  <si>
-    <t>0,31</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>0,324</t>
-  </si>
-  <si>
-    <t>0,322</t>
-  </si>
-  <si>
-    <t>0,311</t>
-  </si>
-  <si>
-    <t>0,325</t>
-  </si>
-  <si>
-    <t>0,03</t>
-  </si>
-  <si>
-    <t>0,297</t>
-  </si>
-  <si>
-    <t>0,321</t>
-  </si>
-  <si>
-    <t>0,323</t>
-  </si>
-  <si>
-    <t>0,312</t>
-  </si>
-  <si>
-    <t>0,286</t>
   </si>
   <si>
     <t>Epocas</t>
@@ -224,55 +169,16 @@
     <t>0,26</t>
   </si>
   <si>
-    <t>0,0283</t>
-  </si>
-  <si>
-    <t>0,0287</t>
-  </si>
-  <si>
     <t>0,24</t>
   </si>
   <si>
-    <t>0,0294</t>
-  </si>
-  <si>
-    <t>0,0285</t>
-  </si>
-  <si>
     <t>0,2</t>
   </si>
   <si>
-    <t>0,0286</t>
-  </si>
-  <si>
     <t>0,27</t>
   </si>
   <si>
-    <t>0,0284</t>
-  </si>
-  <si>
     <t>0,271</t>
-  </si>
-  <si>
-    <t>0,269</t>
-  </si>
-  <si>
-    <t>0,272</t>
-  </si>
-  <si>
-    <t>0,33</t>
-  </si>
-  <si>
-    <t>0,32</t>
-  </si>
-  <si>
-    <t>0,0282</t>
-  </si>
-  <si>
-    <t>0,274</t>
-  </si>
-  <si>
-    <t>0,0281</t>
   </si>
   <si>
     <t xml:space="preserve">R^2 Keras </t>
@@ -285,27 +191,9 @@
     <t>Red LSTM</t>
   </si>
   <si>
-    <t>0,0288</t>
-  </si>
-  <si>
-    <t>0,0422</t>
-  </si>
-  <si>
-    <t>0,34</t>
-  </si>
-  <si>
-    <t>0,0325</t>
-  </si>
-  <si>
-    <t>0,28</t>
-  </si>
-  <si>
     <t>Modelo ML</t>
   </si>
   <si>
-    <t>0,0280</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -315,87 +203,307 @@
     <t>Red Neu. Simple</t>
   </si>
   <si>
-    <t>5 a 12 hrs.</t>
-  </si>
-  <si>
-    <t>13 a 24 hrs.</t>
-  </si>
-  <si>
-    <t>25 a 48 hrs.</t>
-  </si>
-  <si>
-    <t>Horizontes de predicción</t>
-  </si>
-  <si>
-    <t>EMC</t>
-  </si>
-  <si>
-    <t>0,18</t>
-  </si>
-  <si>
-    <t>00,3</t>
-  </si>
-  <si>
-    <t>0,19</t>
-  </si>
-  <si>
-    <t>0,17</t>
-  </si>
-  <si>
-    <t>0,034</t>
-  </si>
-  <si>
-    <t>0,29</t>
-  </si>
-  <si>
-    <t>0,031</t>
-  </si>
-  <si>
-    <t>0,0277</t>
-  </si>
-  <si>
-    <t>0,032</t>
-  </si>
-  <si>
-    <t>0,36</t>
-  </si>
-  <si>
-    <t>0,028</t>
-  </si>
-  <si>
-    <t>0,0273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datos </t>
-  </si>
-  <si>
     <t>Profunda</t>
   </si>
   <si>
-    <t>N Entrada</t>
-  </si>
-  <si>
-    <t>N Salida</t>
-  </si>
-  <si>
-    <t>N Capa Oculta</t>
-  </si>
-  <si>
-    <t>Datos 
-Entrenamiento</t>
-  </si>
-  <si>
     <t># Capa Oculta</t>
   </si>
   <si>
     <t>Revisión</t>
+  </si>
+  <si>
+    <t>Tipo de Red</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Datos </t>
+  </si>
+  <si>
+    <t># Datos 
+Entrenamiento
+Disponibles</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Entrada</t>
+  </si>
+  <si>
+    <t># Neuronas</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Mejores Redes</t>
+  </si>
+  <si>
+    <t>0,0049</t>
+  </si>
+  <si>
+    <t>0,0036</t>
+  </si>
+  <si>
+    <t>0,95</t>
+  </si>
+  <si>
+    <t>0,920</t>
+  </si>
+  <si>
+    <t>0,944</t>
+  </si>
+  <si>
+    <t>0,950</t>
+  </si>
+  <si>
+    <t>0,0025</t>
+  </si>
+  <si>
+    <t>0,954</t>
+  </si>
+  <si>
+    <t>0,0030</t>
+  </si>
+  <si>
+    <t>0,0027</t>
+  </si>
+  <si>
+    <t>0,0026</t>
+  </si>
+  <si>
+    <t>0,96</t>
+  </si>
+  <si>
+    <t>0,0023</t>
+  </si>
+  <si>
+    <t>0,0022</t>
+  </si>
+  <si>
+    <t>0,0021</t>
+  </si>
+  <si>
+    <t>0,937</t>
+  </si>
+  <si>
+    <t>0,940</t>
+  </si>
+  <si>
+    <t>0,0627</t>
+  </si>
+  <si>
+    <t>Predicción de Generación
+ de Energía Eólica 
+de Corto Plazo</t>
+  </si>
+  <si>
+    <t>* Velocidad del Viento</t>
+  </si>
+  <si>
+    <t>* Dirección del viento</t>
+  </si>
+  <si>
+    <t>* Energía Generada</t>
+  </si>
+  <si>
+    <t>* Fecha de la muestra</t>
+  </si>
+  <si>
+    <t>* Hora de la muestra</t>
+  </si>
+  <si>
+    <t>Velocidad de Viento (hora 5)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Energia generada</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 5</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 6</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 7</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 8</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 9</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 10</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 11</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 12</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 13</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 14</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 15</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 16</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 17</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 18</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 19</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 20</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 21</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 22</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 23</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 24</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 25</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 26</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 27</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 28</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 29</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 30</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 31</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 32</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 33</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 34</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 35</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 36</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 37</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 38</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 39</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 40</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 41</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 42</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 43</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 44</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 45</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 46</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 47</t>
+  </si>
+  <si>
+    <t>Energía Generada hora 48</t>
+  </si>
+  <si>
+    <t>0,941</t>
+  </si>
+  <si>
+    <t>0,951</t>
+  </si>
+  <si>
+    <t>0,957</t>
+  </si>
+  <si>
+    <t>0,0024</t>
+  </si>
+  <si>
+    <t>0,0029</t>
+  </si>
+  <si>
+    <t>0,0028</t>
+  </si>
+  <si>
+    <t>0,0606</t>
+  </si>
+  <si>
+    <t>0,97</t>
+  </si>
+  <si>
+    <t>0,0018</t>
+  </si>
+  <si>
+    <t>Modelo AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,14 +569,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,12 +619,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -588,32 +718,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      </right>
+      <top style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -623,6 +733,19 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -637,65 +760,13 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="689">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -969,8 +1040,424 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1019,6 +1506,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,34 +1533,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1073,44 +1590,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="273">
+  <cellStyles count="689">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1247,6 +1749,214 @@
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1383,6 +2093,214 @@
     <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1399,1020 +2317,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>237422</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8533697" y="657225"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>246947</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8543222" y="1838325"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>56447</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8352722" y="1276350"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285047</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8581322" y="1266825"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>494597</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8790872" y="1266825"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>135822</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>336549</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9673522" y="3298825"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>69147</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>339725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>269874</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>501650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9606847" y="4518025"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>43747</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>311150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>244474</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>473075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9581447" y="3879850"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>754947</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>555625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>130174</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9467147" y="4124325"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>761297</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>136524</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9473497" y="4149725"/>
-          <a:ext cx="200727" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Elipse 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5067300" y="1314450"/>
-          <a:ext cx="1628775" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CL" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>131693</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5741918" y="1476375"/>
-          <a:ext cx="249307" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2543175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector recto de flecha 9"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4067175" y="1143000"/>
-          <a:ext cx="1000125" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto de flecha 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="1409700"/>
-          <a:ext cx="1009650" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2066925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector recto de flecha 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3590925" y="1581150"/>
-          <a:ext cx="1476375" cy="109538"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1990725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Conector recto de flecha 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3514725" y="1790700"/>
-          <a:ext cx="1543050" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Conector recto de flecha 23"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3200400" y="1876425"/>
-          <a:ext cx="1866900" cy="85725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Conector recto de flecha 26"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3190875" y="1914525"/>
-          <a:ext cx="1952625" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Conector recto de flecha 33"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7385050" y="1562100"/>
-          <a:ext cx="958850" cy="20638"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4515,6 +4419,968 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237422</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8533697" y="657225"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246947</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8543222" y="1838325"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56447</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8352722" y="1276350"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285047</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8581322" y="1266825"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>494597</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8790872" y="1266825"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135822</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336549</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9673522" y="3298825"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69147</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>339725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269874</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>501650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9606847" y="4518025"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43747</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244474</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>473075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9581447" y="3879850"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>754947</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>555625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130174</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9467147" y="4124325"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>761297</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136524</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9473497" y="4149725"/>
+          <a:ext cx="200727" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Elipse 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="1314450"/>
+          <a:ext cx="1628775" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>131693</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5741918" y="1476375"/>
+          <a:ext cx="249307" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1651000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto de flecha 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="1041400"/>
+          <a:ext cx="1501775" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3289300" y="1193800"/>
+          <a:ext cx="1457325" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1651000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector recto de flecha 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="1371600"/>
+          <a:ext cx="1501775" cy="84138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto de flecha 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="1524000"/>
+          <a:ext cx="1479550" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto de flecha 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3200400" y="1876425"/>
+          <a:ext cx="1866900" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Conector recto de flecha 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7461250" y="1549400"/>
+          <a:ext cx="730250" cy="20638"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4778,6 +5644,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AF21"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="22" max="22" width="6.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32">
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+    </row>
+    <row r="2" spans="2:32">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="2:32">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="2:32">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="2:32">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+    </row>
+    <row r="6" spans="2:32">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+    </row>
+    <row r="7" spans="2:32">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+    </row>
+    <row r="8" spans="2:32">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+    </row>
+    <row r="9" spans="2:32">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+    </row>
+    <row r="10" spans="2:32">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="2:32">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+    </row>
+    <row r="12" spans="2:32">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+    </row>
+    <row r="13" spans="2:32">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+    </row>
+    <row r="14" spans="2:32">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+    </row>
+    <row r="15" spans="2:32">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+    </row>
+    <row r="16" spans="2:32">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" spans="2:32">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+    </row>
+    <row r="18" spans="2:32">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+    </row>
+    <row r="19" spans="2:32">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+    </row>
+    <row r="20" spans="2:32">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+    </row>
+    <row r="21" spans="2:32">
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5063,21 +6556,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:I13"/>
+  <dimension ref="B5:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:8">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -5085,83 +6578,74 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:9" ht="24">
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:9">
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="7"/>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:9">
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="G8" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="7"/>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="G9" s="43"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="7"/>
       <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="2:9">
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:9">
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5169,9 +6653,8 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:9">
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5179,11 +6662,10 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5196,7 +6678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I8"/>
   <sheetViews>
@@ -5218,28 +6700,28 @@
   <sheetData>
     <row r="3" spans="2:9">
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -5249,17 +6731,17 @@
       <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="44">
         <v>0</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H4" s="12">
         <v>20090712</v>
@@ -5275,15 +6757,15 @@
       <c r="C5" s="12">
         <v>27</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F5" s="12">
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H5" s="12">
         <v>20090713</v>
@@ -5299,17 +6781,17 @@
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="44">
         <v>12</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F6" s="12">
         <v>0</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" s="12">
         <v>20090712</v>
@@ -5325,15 +6807,15 @@
       <c r="C7" s="12">
         <v>27</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H7" s="12">
         <v>20090713</v>
@@ -5349,15 +6831,15 @@
       <c r="C8" s="12">
         <v>40</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8" s="12">
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8" s="16">
         <v>20090714</v>
@@ -5381,1611 +6863,297 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AF21"/>
+  <dimension ref="C1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="22" max="22" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32">
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-    </row>
-    <row r="2" spans="2:32">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-    </row>
-    <row r="3" spans="2:32">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-    </row>
-    <row r="4" spans="2:32">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-    </row>
-    <row r="5" spans="2:32">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-    </row>
-    <row r="6" spans="2:32">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-    </row>
-    <row r="7" spans="2:32">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-    </row>
-    <row r="8" spans="2:32">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-    </row>
-    <row r="9" spans="2:32">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-    </row>
-    <row r="10" spans="2:32">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-    </row>
-    <row r="11" spans="2:32">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-    </row>
-    <row r="12" spans="2:32">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-    </row>
-    <row r="13" spans="2:32">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-    </row>
-    <row r="14" spans="2:32">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-    </row>
-    <row r="15" spans="2:32">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-    </row>
-    <row r="16" spans="2:32">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-    </row>
-    <row r="17" spans="2:32">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-    </row>
-    <row r="18" spans="2:32">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-    </row>
-    <row r="19" spans="2:32">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-    </row>
-    <row r="20" spans="2:32">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-    </row>
-    <row r="21" spans="2:32">
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
+    <row r="1" spans="3:10">
+      <c r="E1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="3" spans="3:10" ht="36">
+      <c r="C3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="C4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="22">
+        <v>45</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22">
+        <v>45</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22">
+        <f>(D4+1)*(G4*F4)+(E4+1)*(G4*F4)</f>
+        <v>2160</v>
+      </c>
+      <c r="I4" s="29">
+        <f>96096*0.8</f>
+        <v>76876.800000000003</v>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f>IF(I4&gt;H4,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="22">
+        <v>45</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <v>45</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <f>(D5+1)*(G5*F5)+(E5+1)*(G5*F5)</f>
+        <v>2160</v>
+      </c>
+      <c r="I5" s="29">
+        <f t="shared" ref="I5:I6" si="0">96096*0.8</f>
+        <v>76876.800000000003</v>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>IF(I5&gt;H5,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="22">
+        <v>45</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>45</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22">
+        <f>(D6+1)*(G6*F6)+(E6+1)*(G6*F6)</f>
+        <v>2160</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="0"/>
+        <v>76876.800000000003</v>
+      </c>
+      <c r="J6" s="22" t="str">
+        <f>IF(I6&gt;H6,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="E9" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="3:10" ht="36">
+      <c r="C11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="22">
+        <v>45</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
+        <f>1530+45</f>
+        <v>1575</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22">
+        <f>(D12+1)*(G12*F12)+(E12+1)*(G12*F12)</f>
+        <v>75600</v>
+      </c>
+      <c r="I12" s="29">
+        <f>96096*0.8</f>
+        <v>76876.800000000003</v>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f>IF(I12&gt;H12,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="22">
+        <v>45</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22">
+        <v>45</v>
+      </c>
+      <c r="G13" s="22">
+        <v>35</v>
+      </c>
+      <c r="H13" s="22">
+        <f>(D13+1)*(G13*F13)+(E13+1)*(G13*F13)</f>
+        <v>75600</v>
+      </c>
+      <c r="I13" s="29">
+        <f t="shared" ref="I13:I14" si="1">96096*0.8</f>
+        <v>76876.800000000003</v>
+      </c>
+      <c r="J13" s="22" t="str">
+        <f>IF(I13&gt;H13,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="22">
+        <v>45</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>45</v>
+      </c>
+      <c r="G14" s="22">
+        <v>35</v>
+      </c>
+      <c r="H14" s="22">
+        <f>(D14+1)*(G14*F14)+(E14+1)*(G14*F14)</f>
+        <v>75600</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" si="1"/>
+        <v>76876.800000000003</v>
+      </c>
+      <c r="J14" s="22" t="str">
+        <f>IF(I14&gt;H14,"OK","NO")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="22">
+        <v>45</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22">
+        <v>90</v>
+      </c>
+      <c r="G20" s="22">
+        <v>18</v>
+      </c>
+      <c r="H20" s="22">
+        <f>(D20+1)*(G20*F20)+(E20+1)*(G20*F20)</f>
+        <v>77760</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" ref="I20" si="2">96096*0.8</f>
+        <v>76876.800000000003</v>
+      </c>
+      <c r="J20" s="22" t="str">
+        <f>IF(I20&gt;H20,"OK","NO")</f>
+        <v>NO</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB22"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:AB8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.83203125" customWidth="1"/>
-    <col min="26" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:28">
-      <c r="E2" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="J2" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="Q2" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-    </row>
-    <row r="3" spans="2:28">
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="2:28" ht="24">
-      <c r="B4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28">
-      <c r="B5" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="21">
-        <v>50</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="21">
-        <v>13</v>
-      </c>
-      <c r="J5" s="24">
-        <v>50</v>
-      </c>
-      <c r="K5" s="24">
-        <v>2</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>100</v>
-      </c>
-      <c r="R5" s="24">
-        <v>2</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" s="24">
-        <v>10</v>
-      </c>
-      <c r="W5" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y5" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z5" s="24" t="str">
-        <f>B5</f>
-        <v>0,32</v>
-      </c>
-      <c r="AA5" s="24" t="str">
-        <f>C5</f>
-        <v>0,03</v>
-      </c>
-      <c r="AB5" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28">
-      <c r="E6" s="21">
-        <v>80</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="21">
-        <v>13</v>
-      </c>
-      <c r="J6" s="24">
-        <v>50</v>
-      </c>
-      <c r="K6" s="24">
-        <v>4</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>100</v>
-      </c>
-      <c r="R6" s="24">
-        <v>5</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" s="24">
-        <v>10</v>
-      </c>
-      <c r="W6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" s="24">
-        <f>E12</f>
-        <v>200</v>
-      </c>
-      <c r="Y6" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="24" t="str">
-        <f>F12</f>
-        <v>0,325</v>
-      </c>
-      <c r="AA6" s="24" t="str">
-        <f>G12</f>
-        <v>0,03</v>
-      </c>
-      <c r="AB6" s="24">
-        <f>H12</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28">
-      <c r="E7" s="21">
-        <v>100</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="21">
-        <v>13</v>
-      </c>
-      <c r="J7" s="24">
-        <v>50</v>
-      </c>
-      <c r="K7" s="24">
-        <v>6</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>100</v>
-      </c>
-      <c r="R7" s="24">
-        <v>10</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="U7" s="24">
-        <v>10</v>
-      </c>
-      <c r="W7" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="X7" s="24">
-        <f>J11</f>
-        <v>50</v>
-      </c>
-      <c r="Y7" s="24">
-        <f>K11</f>
-        <v>6</v>
-      </c>
-      <c r="Z7" s="24" t="str">
-        <f>M11</f>
-        <v>0,33</v>
-      </c>
-      <c r="AA7" s="24" t="str">
-        <f>N11</f>
-        <v>0,0282</v>
-      </c>
-      <c r="AB7" s="24">
-        <f>O11</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28">
-      <c r="E8" s="21">
-        <v>120</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="21">
-        <v>13</v>
-      </c>
-      <c r="J8" s="24">
-        <v>50</v>
-      </c>
-      <c r="K8" s="24">
-        <v>8</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>100</v>
-      </c>
-      <c r="R8" s="24">
-        <v>20</v>
-      </c>
-      <c r="S8" s="24">
-        <v>0</v>
-      </c>
-      <c r="T8" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" s="24">
-        <v>10</v>
-      </c>
-      <c r="W8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" s="24">
-        <f>Q14</f>
-        <v>100</v>
-      </c>
-      <c r="Y8" s="24">
-        <f>R14</f>
-        <v>5</v>
-      </c>
-      <c r="Z8" s="24" t="str">
-        <f>S14</f>
-        <v>0,34</v>
-      </c>
-      <c r="AA8" s="24" t="str">
-        <f>T14</f>
-        <v>0,0280</v>
-      </c>
-      <c r="AB8" s="24">
-        <f>U14</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28">
-      <c r="E9" s="21">
-        <v>140</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="21">
-        <v>13</v>
-      </c>
-      <c r="J9" s="24">
-        <v>50</v>
-      </c>
-      <c r="K9" s="24">
-        <v>2</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" s="24">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>100</v>
-      </c>
-      <c r="R9" s="24">
-        <v>2</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="U9" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28">
-      <c r="E10" s="21">
-        <v>160</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="21">
-        <v>13</v>
-      </c>
-      <c r="J10" s="24">
-        <v>50</v>
-      </c>
-      <c r="K10" s="24">
-        <v>4</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="24">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>100</v>
-      </c>
-      <c r="R10" s="24">
-        <v>5</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="U10" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28">
-      <c r="E11" s="21">
-        <v>180</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="21">
-        <v>13</v>
-      </c>
-      <c r="J11" s="25">
-        <v>50</v>
-      </c>
-      <c r="K11" s="25">
-        <v>6</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="25">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>100</v>
-      </c>
-      <c r="R11" s="24">
-        <v>10</v>
-      </c>
-      <c r="S11" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="T11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28">
-      <c r="E12" s="25">
-        <v>200</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="26">
-        <v>13</v>
-      </c>
-      <c r="J12" s="24">
-        <v>50</v>
-      </c>
-      <c r="K12" s="24">
-        <v>8</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="24">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>100</v>
-      </c>
-      <c r="R12" s="24">
-        <v>20</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="U12" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28">
-      <c r="E13" s="24">
-        <v>220</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="24">
-        <v>13</v>
-      </c>
-      <c r="J13" s="24">
-        <v>50</v>
-      </c>
-      <c r="K13" s="24">
-        <v>4</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="24">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>100</v>
-      </c>
-      <c r="R13" s="24">
-        <v>2</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="U13" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28">
-      <c r="E14" s="24">
-        <v>240</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="24">
-        <v>13</v>
-      </c>
-      <c r="J14" s="24">
-        <v>50</v>
-      </c>
-      <c r="K14" s="24">
-        <v>6</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" s="24">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="25">
-        <v>100</v>
-      </c>
-      <c r="R14" s="25">
-        <v>5</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="T14" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="U14" s="25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28">
-      <c r="E15" s="24">
-        <v>260</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="24">
-        <v>13</v>
-      </c>
-      <c r="J15" s="27">
-        <v>100</v>
-      </c>
-      <c r="K15" s="27">
-        <v>4</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" s="27">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="24">
-        <v>100</v>
-      </c>
-      <c r="R15" s="24">
-        <v>10</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="T15" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="U15" s="27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28">
-      <c r="E16" s="24">
-        <v>300</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="24">
-        <v>13</v>
-      </c>
-      <c r="J16" s="24">
-        <v>100</v>
-      </c>
-      <c r="K16" s="24">
-        <v>6</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="24">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="24">
-        <v>100</v>
-      </c>
-      <c r="R16" s="24">
-        <v>20</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="T16" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="U16" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="5:21">
-      <c r="E17" s="24">
-        <v>400</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="24">
-        <v>13</v>
-      </c>
-      <c r="J17" s="24">
-        <v>100</v>
-      </c>
-      <c r="K17" s="24">
-        <v>4</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O17" s="24">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="24">
-        <v>100</v>
-      </c>
-      <c r="R17" s="24">
-        <v>5</v>
-      </c>
-      <c r="S17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="T17" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="U17" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="5:21">
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="J18" s="24">
-        <v>100</v>
-      </c>
-      <c r="K18" s="24">
-        <v>6</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O18" s="24">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>200</v>
-      </c>
-      <c r="R18" s="24">
-        <v>5</v>
-      </c>
-      <c r="S18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="T18" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="U18" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="5:21">
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="J19" s="24">
-        <v>200</v>
-      </c>
-      <c r="K19" s="24">
-        <v>4</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O19" s="24">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-    </row>
-    <row r="20" spans="5:21">
-      <c r="J20" s="24">
-        <v>200</v>
-      </c>
-      <c r="K20" s="24">
-        <v>6</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O20" s="24">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-    </row>
-    <row r="21" spans="5:21">
-      <c r="J21" s="24">
-        <v>300</v>
-      </c>
-      <c r="K21" s="24">
-        <v>4</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O21" s="24">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-    </row>
-    <row r="22" spans="5:21">
-      <c r="J22" s="24">
-        <v>400</v>
-      </c>
-      <c r="K22" s="24">
-        <v>4</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="24">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="Q2:U2"/>
+  <mergeCells count="2">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6999,227 +7167,266 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K9"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="24" customHeight="1">
-      <c r="B3" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="24" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="39"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="22">
+        <v>45</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="22">
         <v>90</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="24">
-        <f>Ejec.Iter1!X6</f>
-        <v>200</v>
-      </c>
-      <c r="D7" s="24">
-        <f>Ejec.Iter1!Y6</f>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="22">
+        <v>270</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="34">
+        <v>540</v>
+      </c>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="51">
+        <v>810</v>
+      </c>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="51">
+        <v>1080</v>
+      </c>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="33">
+        <f>90*15</f>
+        <v>1350</v>
+      </c>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="33">
+        <v>1575</v>
+      </c>
+      <c r="C11" s="24"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="D13" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="2:5" ht="24">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="22">
+        <v>45</v>
+      </c>
+      <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
-        <v>20</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="24">
-        <f>Ejec.Iter1!X7</f>
-        <v>50</v>
-      </c>
-      <c r="D8" s="24">
-        <f>Ejec.Iter1!Y7</f>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="22">
+        <v>45</v>
+      </c>
+      <c r="E17" s="22">
         <v>6</v>
       </c>
-      <c r="E8" s="24">
-        <f>Ejec.Iter1!AB7</f>
-        <v>20</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="24">
-        <f>Ejec.Iter1!X8</f>
-        <v>100</v>
-      </c>
-      <c r="D9" s="24">
-        <f>Ejec.Iter1!Y8</f>
-        <v>5</v>
-      </c>
-      <c r="E9" s="24">
-        <f>Ejec.Iter1!AB8</f>
-        <v>25</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="24" t="s">
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="22">
         <v>45</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>108</v>
+      <c r="E18" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="22">
+        <v>45</v>
+      </c>
+      <c r="E19" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="22">
+        <v>45</v>
+      </c>
+      <c r="E20" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="22">
+        <v>45</v>
+      </c>
+      <c r="E21" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="22">
+        <v>45</v>
+      </c>
+      <c r="E22" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="G24" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="47"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="2:8" ht="24">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="G26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="G27" s="22">
+        <v>45</v>
+      </c>
+      <c r="H27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="G28" s="22">
+        <v>45</v>
+      </c>
+      <c r="H28" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="G29" s="22">
+        <v>45</v>
+      </c>
+      <c r="H29" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="G30" s="22">
+        <v>45</v>
+      </c>
+      <c r="H30" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="G31" s="22">
+        <v>45</v>
+      </c>
+      <c r="H31" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="G32" s="22">
+        <v>45</v>
+      </c>
+      <c r="H32" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" s="22">
+        <v>45</v>
+      </c>
+      <c r="H33" s="23">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
+  <mergeCells count="3">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7233,126 +7440,2406 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:J4"/>
+  <dimension ref="B2:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" customWidth="1"/>
+    <col min="26" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="28">
-      <c r="D1" s="23" t="s">
+    <row r="2" spans="2:28">
+      <c r="E2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="J2" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="Q2" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="W2" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="2:28" ht="24">
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" s="42">
+        <v>0.92</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <f>E5/44</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>44</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="20">
+        <v>80</v>
+      </c>
+      <c r="J5" s="23">
+        <v>44</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="23">
+        <v>364</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>44</v>
+      </c>
+      <c r="R5" s="22">
+        <v>1</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="22">
+        <v>174</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="22">
+        <f>B5</f>
+        <v>0.92</v>
+      </c>
+      <c r="AA5" s="22" t="str">
+        <f>C5</f>
+        <v>0,0049</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="D6">
+        <f>E6/88</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>88</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="20">
+        <v>245</v>
+      </c>
+      <c r="J6" s="31">
+        <v>44</v>
+      </c>
+      <c r="K6" s="31">
+        <v>6</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="31">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>44</v>
+      </c>
+      <c r="R6" s="31">
+        <v>6</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" s="31">
+        <v>178</v>
+      </c>
+      <c r="W6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="22">
+        <f>E14</f>
+        <v>1628</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="22">
+        <f>F14</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="AA6" s="22" t="str">
+        <f>G14</f>
+        <v>0,0025</v>
+      </c>
+      <c r="AB6" s="22">
+        <f>H14</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="D7">
+        <f t="shared" ref="D7:D14" si="0">E7/88</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="22">
+        <v>176</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="20">
+        <v>186</v>
+      </c>
+      <c r="J7" s="33">
+        <v>44</v>
+      </c>
+      <c r="K7" s="33">
+        <v>12</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="33">
+        <v>352</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>44</v>
+      </c>
+      <c r="R7" s="22">
+        <v>12</v>
+      </c>
+      <c r="S7" s="33">
+        <v>-0.1</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7" s="22">
+        <v>81</v>
+      </c>
+      <c r="W7" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="42">
+        <f>J18</f>
+        <v>264</v>
+      </c>
+      <c r="Y7" s="42">
+        <f>K18</f>
+        <v>6</v>
+      </c>
+      <c r="Z7" s="42" t="str">
+        <f>M18</f>
+        <v>0,96</v>
+      </c>
+      <c r="AA7" s="42" t="str">
+        <f>N18</f>
+        <v>0,0021</v>
+      </c>
+      <c r="AB7" s="42">
+        <f>O18</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="34">
+        <v>264</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="35">
+        <v>186</v>
+      </c>
+      <c r="J8" s="23">
+        <v>44</v>
+      </c>
+      <c r="K8" s="23">
+        <v>18</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="23">
+        <v>247</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>44</v>
+      </c>
+      <c r="R8" s="22">
+        <v>18</v>
+      </c>
+      <c r="S8" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="22">
+        <v>72</v>
+      </c>
+      <c r="W8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="22">
+        <f>Q18</f>
+        <v>264</v>
+      </c>
+      <c r="Y8" s="22">
+        <f>R18</f>
+        <v>6</v>
+      </c>
+      <c r="Z8" s="22" t="str">
+        <f>S18</f>
+        <v>0,96</v>
+      </c>
+      <c r="AA8" s="22" t="str">
+        <f>T18</f>
+        <v>0,0022</v>
+      </c>
+      <c r="AB8" s="22">
+        <f>U18</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="36">
+        <v>528</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="35">
+        <v>161</v>
+      </c>
+      <c r="J9" s="23">
+        <v>44</v>
+      </c>
+      <c r="K9" s="23">
+        <v>24</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="23">
+        <v>172</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>44</v>
+      </c>
+      <c r="R9" s="22">
+        <v>24</v>
+      </c>
+      <c r="S9" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="37">
+        <v>792</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="38">
+        <v>120</v>
+      </c>
+      <c r="J10" s="23">
+        <v>44</v>
+      </c>
+      <c r="K10" s="23">
+        <v>30</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="23">
+        <v>171</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>44</v>
+      </c>
+      <c r="R10" s="22">
+        <v>30</v>
+      </c>
+      <c r="S10" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1056</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="38">
+        <v>100</v>
+      </c>
+      <c r="J11" s="23">
+        <v>44</v>
+      </c>
+      <c r="K11" s="23">
+        <v>36</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="23">
+        <v>219</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>44</v>
+      </c>
+      <c r="R11" s="23">
+        <v>36</v>
+      </c>
+      <c r="S11" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="36">
+        <v>1320</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="35">
+        <v>118</v>
+      </c>
+      <c r="J12" s="23">
+        <v>44</v>
+      </c>
+      <c r="K12" s="23">
+        <v>37</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="23">
+        <v>210</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>44</v>
+      </c>
+      <c r="R12" s="22">
+        <v>37</v>
+      </c>
+      <c r="S12" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1584</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="E14" s="40">
+        <v>1628</v>
+      </c>
+      <c r="F14" s="41">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="41">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="24">
+      <c r="J15" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="J16" s="22">
+        <v>88</v>
+      </c>
+      <c r="K16" s="22">
+        <v>6</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="22">
+        <v>325</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>88</v>
+      </c>
+      <c r="R16" s="22">
+        <v>6</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" s="22">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="10:21">
+      <c r="J17" s="22">
+        <v>176</v>
+      </c>
+      <c r="K17" s="22">
+        <v>6</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="22">
+        <v>202</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>176</v>
+      </c>
+      <c r="R17" s="22">
+        <v>6</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="U17" s="22">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="10:21">
+      <c r="J18" s="42">
+        <v>264</v>
+      </c>
+      <c r="K18" s="42">
+        <v>6</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="42">
+        <v>224</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>264</v>
+      </c>
+      <c r="R18" s="42">
+        <v>6</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="U18" s="42">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="W2:AB2"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" customWidth="1"/>
+    <col min="26" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28">
+      <c r="E2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="J2" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="Q2" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="W2" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="2:28" ht="24">
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" s="42">
+        <v>0.92</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="22">
+        <v>45</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="27">
+        <v>87</v>
+      </c>
+      <c r="J5" s="23">
+        <v>45</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="23">
+        <v>197</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>45</v>
+      </c>
+      <c r="R5" s="22">
+        <v>1</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" s="22">
+        <v>188</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="22">
+        <f>B5</f>
+        <v>0.92</v>
+      </c>
+      <c r="AA5" s="22" t="str">
+        <f>C5</f>
+        <v>0,0049</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="D6">
+        <f>E6/90</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>90</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="27">
+        <v>49</v>
+      </c>
+      <c r="J6" s="31">
+        <v>45</v>
+      </c>
+      <c r="K6" s="31">
+        <v>6</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="31">
+        <v>178</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>45</v>
+      </c>
+      <c r="R6" s="31">
+        <v>6</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" s="31">
+        <v>156</v>
+      </c>
+      <c r="W6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="22">
+        <f>E12</f>
+        <v>1575</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="22" t="str">
+        <f>F12</f>
+        <v>0,957</v>
+      </c>
+      <c r="AA6" s="22" t="str">
+        <f>G12</f>
+        <v>0,0025</v>
+      </c>
+      <c r="AB6" s="22">
+        <f>H12</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="D7">
+        <f t="shared" ref="D7:D12" si="0">E7/90</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="22">
+        <v>270</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="27">
+        <v>139</v>
+      </c>
+      <c r="J7" s="23">
+        <v>45</v>
+      </c>
+      <c r="K7" s="33">
+        <v>12</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="33">
+        <v>206</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>45</v>
+      </c>
+      <c r="R7" s="22">
+        <v>12</v>
+      </c>
+      <c r="S7" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="U7" s="22">
+        <v>48</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="23">
+        <f>J10</f>
+        <v>45</v>
+      </c>
+      <c r="Y7" s="23">
+        <f>K10</f>
+        <v>30</v>
+      </c>
+      <c r="Z7" s="23">
+        <f>M10</f>
+        <v>0.95</v>
+      </c>
+      <c r="AA7" s="23" t="str">
+        <f>N10</f>
+        <v>0,0027</v>
+      </c>
+      <c r="AB7" s="23">
+        <f>O10</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="34">
+        <v>540</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="35">
+        <v>195</v>
+      </c>
+      <c r="J8" s="23">
+        <v>45</v>
+      </c>
+      <c r="K8" s="23">
+        <v>18</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="54">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>45</v>
+      </c>
+      <c r="R8" s="22">
+        <v>18</v>
+      </c>
+      <c r="S8" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" s="22">
+        <v>50</v>
+      </c>
+      <c r="W8" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="42">
+        <f>Q18</f>
+        <v>270</v>
+      </c>
+      <c r="Y8" s="42">
+        <f>R18</f>
+        <v>6</v>
+      </c>
+      <c r="Z8" s="42" t="str">
+        <f>S18</f>
+        <v>0,97</v>
+      </c>
+      <c r="AA8" s="42" t="str">
+        <f>T18</f>
+        <v>0,0018</v>
+      </c>
+      <c r="AB8" s="42">
+        <f>U18</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="51">
+        <v>810</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="52">
+        <v>119</v>
+      </c>
+      <c r="J9" s="23">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23">
+        <v>24</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="23">
+        <v>166</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>45</v>
+      </c>
+      <c r="R9" s="22">
+        <v>24</v>
+      </c>
+      <c r="S9" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="U9" s="22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="51">
+        <v>1080</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="52">
+        <v>104</v>
+      </c>
+      <c r="J10" s="23">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23">
+        <v>30</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="23">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>45</v>
+      </c>
+      <c r="R10" s="22">
+        <v>30</v>
+      </c>
+      <c r="S10" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="U10" s="22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="33">
+        <f>90*15</f>
+        <v>1350</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="53">
+        <v>81</v>
+      </c>
+      <c r="J11" s="23">
+        <v>45</v>
+      </c>
+      <c r="K11" s="23">
+        <v>35</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11" s="23">
+        <v>226</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>45</v>
+      </c>
+      <c r="R11" s="23">
+        <v>35</v>
+      </c>
+      <c r="S11" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="U11" s="22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="E12" s="42">
+        <v>1575</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="42">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="24">
+      <c r="J15" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="J16" s="22">
+        <v>90</v>
+      </c>
+      <c r="K16" s="22">
+        <v>18</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="22">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>90</v>
+      </c>
+      <c r="R16" s="22">
+        <v>6</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" s="22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="10:21">
+      <c r="Q17" s="22">
+        <v>180</v>
+      </c>
+      <c r="R17" s="22">
+        <v>6</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="U17" s="22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="10:21">
+      <c r="Q18" s="42">
+        <v>270</v>
+      </c>
+      <c r="R18" s="42">
+        <v>6</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="U18" s="42">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="10:21" ht="24">
+      <c r="J29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="10:21">
+      <c r="J30" s="23">
+        <v>45</v>
+      </c>
+      <c r="K30" s="23">
+        <v>1</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="O30" s="23">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="10:21">
+      <c r="J31" s="23">
+        <v>45</v>
+      </c>
+      <c r="K31" s="23">
+        <v>6</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="23">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="10:21">
+      <c r="J32" s="23">
+        <v>45</v>
+      </c>
+      <c r="K32" s="33">
+        <v>12</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" s="33">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15">
+      <c r="J33" s="31">
+        <v>45</v>
+      </c>
+      <c r="K33" s="31">
+        <v>18</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" s="31">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15">
+      <c r="J34" s="23">
+        <v>45</v>
+      </c>
+      <c r="K34" s="23">
+        <v>24</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="23">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15">
+      <c r="J35" s="42">
+        <v>45</v>
+      </c>
+      <c r="K35" s="42">
+        <v>30</v>
+      </c>
+      <c r="L35" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="42">
+        <v>0.96</v>
+      </c>
+      <c r="N35" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="O35" s="42">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15">
+      <c r="J36" s="23">
+        <v>45</v>
+      </c>
+      <c r="K36" s="23">
+        <v>35</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O36" s="23">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15" ht="24">
+      <c r="J39" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15">
+      <c r="J40" s="22">
+        <v>90</v>
+      </c>
+      <c r="K40" s="22">
+        <v>18</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O40" s="22">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="W2:AB2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:H47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" ht="24">
+      <c r="C2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="22">
+        <v>4.09</v>
+      </c>
+      <c r="G3" s="22">
+        <v>5</v>
+      </c>
+      <c r="H3" s="50">
+        <v>0.2441711</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G4" s="22">
+        <v>6</v>
+      </c>
+      <c r="H4" s="50">
+        <v>0.26037993999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.216</v>
+      </c>
+      <c r="G5" s="22">
+        <v>7</v>
+      </c>
+      <c r="H5" s="50">
+        <v>0.27747282000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G6" s="22">
+        <v>8</v>
+      </c>
+      <c r="H6" s="50">
+        <v>0.28609279999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G7" s="22">
+        <v>9</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0.29496080000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.185</v>
+      </c>
+      <c r="G8" s="22">
+        <v>10</v>
+      </c>
+      <c r="H8" s="50">
+        <v>0.3103011</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.246</v>
+      </c>
+      <c r="G9" s="22">
+        <v>11</v>
+      </c>
+      <c r="H9" s="50">
+        <v>0.23779659</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G10" s="22">
+        <v>12</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0.20221471999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G11" s="22">
+        <v>13</v>
+      </c>
+      <c r="H11" s="50">
+        <v>0.15820973999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="22">
+        <v>14</v>
+      </c>
+      <c r="H12" s="50">
+        <v>0.11666885</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G13" s="22">
+        <v>15</v>
+      </c>
+      <c r="H13" s="50">
+        <v>0.10520939</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="G14" s="22">
+        <v>16</v>
+      </c>
+      <c r="H14" s="50">
+        <v>9.8775559999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.115</v>
+      </c>
+      <c r="G15" s="22">
+        <v>17</v>
+      </c>
+      <c r="H15" s="50">
+        <v>8.9180869999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="G16" s="22">
+        <v>18</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0.18040845999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="22">
+        <v>19</v>
+      </c>
+      <c r="H17" s="50">
+        <v>0.121033005</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="G18" s="22">
+        <v>20</v>
+      </c>
+      <c r="H18" s="50">
+        <v>1.4702143000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <v>21</v>
+      </c>
+      <c r="H19" s="50">
+        <v>4.6417100000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22">
+        <v>22</v>
+      </c>
+      <c r="H20" s="50">
+        <v>6.4402899999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="D21" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="G21" s="22">
+        <v>23</v>
+      </c>
+      <c r="H21" s="50">
+        <v>4.0074404999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="G22" s="22">
+        <v>24</v>
+      </c>
+      <c r="H22" s="50">
+        <v>4.0192806E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="D23" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="G23" s="22">
+        <v>25</v>
+      </c>
+      <c r="H23" s="50">
+        <v>2.7372051000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="22" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="3:10">
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2">
+      <c r="D24" s="22">
+        <v>0.125</v>
+      </c>
+      <c r="G24" s="22">
+        <v>26</v>
+      </c>
+      <c r="H24" s="50">
+        <v>1.8415233E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="22">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G25" s="22">
+        <v>27</v>
+      </c>
+      <c r="H25" s="50">
+        <v>7.2128356000000005E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="22">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G26" s="22">
+        <v>28</v>
+      </c>
+      <c r="H26" s="50">
+        <v>0.10127371</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="22">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G27" s="22">
+        <v>29</v>
+      </c>
+      <c r="H27" s="50">
+        <v>0.15261579</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G28" s="22">
+        <v>30</v>
+      </c>
+      <c r="H28" s="50">
+        <v>0.17448409000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G29" s="22">
+        <v>31</v>
+      </c>
+      <c r="H29" s="50">
+        <v>0.18957847</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0.185</v>
+      </c>
+      <c r="G30" s="22">
+        <v>32</v>
+      </c>
+      <c r="H30" s="50">
+        <v>0.21259478000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="G31" s="22">
+        <v>33</v>
+      </c>
+      <c r="H31" s="50">
+        <v>0.20440419000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G32" s="22">
+        <v>34</v>
+      </c>
+      <c r="H32" s="50">
+        <v>0.24650791</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G33" s="22">
+        <v>35</v>
+      </c>
+      <c r="H33" s="50">
+        <v>0.23907122</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="G34" s="22">
+        <v>36</v>
+      </c>
+      <c r="H34" s="50">
+        <v>0.24123644999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G35" s="22">
+        <v>37</v>
+      </c>
+      <c r="H35" s="50">
+        <v>0.25586933000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="G36" s="22">
+        <v>38</v>
+      </c>
+      <c r="H36" s="50">
+        <v>0.27231756000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G37" s="22">
+        <v>39</v>
+      </c>
+      <c r="H37" s="50">
+        <v>0.28030085999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G38" s="22">
+        <v>40</v>
+      </c>
+      <c r="H38" s="50">
+        <v>0.28886719999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <v>41</v>
+      </c>
+      <c r="H39" s="50">
+        <v>0.30395889999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="G40" s="22">
+        <v>42</v>
+      </c>
+      <c r="H40" s="50">
+        <v>0.23375599</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="G41" s="22">
+        <v>43</v>
+      </c>
+      <c r="H41" s="50">
+        <v>0.19487457999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G42" s="22">
         <v>44</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>792</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f>(D2+1)*(G2*F2)+(E2+1)+(G2*F2)</f>
-        <v>36434</v>
-      </c>
-      <c r="I2">
-        <f>46670*0.8</f>
-        <v>37336</v>
-      </c>
-      <c r="J2" s="32" t="str">
-        <f>IF(I2&gt;H2,"OK","NO")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10">
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>44</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <f>(D3+1)*(G3*F3)+(E3+1)+(G3*F3)</f>
-        <v>36434</v>
-      </c>
-      <c r="I3">
-        <f>46670*0.8</f>
-        <v>37336</v>
-      </c>
-      <c r="J3" s="32" t="str">
-        <f>IF(I3&gt;H3,"OK","NO")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10">
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4">
-        <v>44</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <f>(D4+1)*(G4*F4)+(E4+1)+(G4*F4)</f>
-        <v>36434</v>
-      </c>
-      <c r="I4">
-        <f>46670*0.8</f>
-        <v>37336</v>
-      </c>
-      <c r="J4" s="32" t="str">
-        <f>IF(I4&gt;H4,"OK","NO")</f>
-        <v>OK</v>
-      </c>
+      <c r="H42" s="50">
+        <v>0.15423265</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0.105</v>
+      </c>
+      <c r="G43" s="22">
+        <v>45</v>
+      </c>
+      <c r="H43" s="50">
+        <v>0.11152297</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="G44" s="22">
+        <v>46</v>
+      </c>
+      <c r="H44" s="50">
+        <v>9.4362600000000005E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="G45" s="22">
+        <v>47</v>
+      </c>
+      <c r="H45" s="50">
+        <v>8.6017209999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="22">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G46" s="22">
+        <v>48</v>
+      </c>
+      <c r="H46" s="50">
+        <v>7.7683730000000006E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
